--- a/src/test/resources/Data/data_advcucumber.xlsx
+++ b/src/test/resources/Data/data_advcucumber.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -28,10 +28,19 @@
     <t xml:space="preserve">Mail</t>
   </si>
   <si>
+    <t xml:space="preserve">Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ConfirmPassword</t>
+  </si>
+  <si>
     <t xml:space="preserve">Advantage</t>
   </si>
   <si>
     <t xml:space="preserve">Thrishalganga@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thrishal@123</t>
   </si>
 </sst>
 </file>
@@ -113,7 +122,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -123,6 +132,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -146,10 +159,15 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.16"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -158,17 +176,33 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="Thrishal@123"/>
+    <hyperlink ref="D2" r:id="rId2" display="Thrishal@123"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
